--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>modelID</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
   </si>
 </sst>
 </file>
@@ -389,47 +392,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.9278022144698923</v>
+      </c>
+      <c r="D2">
+        <v>0.8093432428333081</v>
+      </c>
+      <c r="E2">
+        <v>0.8408918549977249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.925892316999395</v>
+      </c>
+      <c r="D3">
+        <v>0.7997580157289776</v>
+      </c>
+      <c r="E3">
+        <v>0.836963097398669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0.9278022144698923</v>
-      </c>
-      <c r="E2">
-        <v>0.8093432428333081</v>
-      </c>
-      <c r="F2">
-        <v>0.8408918549977249</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.9257410768300061</v>
+      </c>
+      <c r="D4">
+        <v>0.8035390199637024</v>
+      </c>
+      <c r="E4">
+        <v>0.8316696914700544</v>
       </c>
     </row>
   </sheetData>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>modelID</t>
   </si>
@@ -31,10 +31,7 @@
     <t>accuracy_3</t>
   </si>
   <si>
-    <t>2025-02-25</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
+    <t>2025-04-21</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,47 +420,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.9278022144698923</v>
+        <v>0.9271955103898074</v>
       </c>
       <c r="D2">
-        <v>0.8093432428333081</v>
+        <v>0.804792962232671</v>
       </c>
       <c r="E2">
-        <v>0.8408918549977249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.925892316999395</v>
-      </c>
-      <c r="D3">
-        <v>0.7997580157289776</v>
-      </c>
-      <c r="E3">
-        <v>0.836963097398669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0.9257410768300061</v>
-      </c>
-      <c r="D4">
-        <v>0.8035390199637024</v>
-      </c>
-      <c r="E4">
-        <v>0.8316696914700544</v>
+        <v>0.8343697861368118</v>
       </c>
     </row>
   </sheetData>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Desktop\mproj\mproj_tool\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFC1FB-B3C6-40FB-A5CF-CD899D756168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4005" yWindow="2505" windowWidth="27915" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,14 +37,14 @@
     <t>accuracy_3</t>
   </si>
   <si>
-    <t>2025-04-21</t>
+    <t>2025-04-22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,17 +103,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,13 +438,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.9271955103898074</v>
+        <v>0.9227969058091916</v>
       </c>
       <c r="D2">
-        <v>0.804792962232671</v>
+        <v>0.80646139845290454</v>
       </c>
       <c r="E2">
-        <v>0.8343697861368118</v>
+        <v>0.83072956165630218</v>
       </c>
     </row>
   </sheetData>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Desktop\mproj\mproj_tool\models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFC1FB-B3C6-40FB-A5CF-CD899D756168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="2505" windowWidth="27915" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>modelID</t>
   </si>
@@ -35,6 +29,15 @@
   </si>
   <si>
     <t>accuracy_3</t>
+  </si>
+  <si>
+    <t>totalPredictions</t>
+  </si>
+  <si>
+    <t>predictionChanged</t>
+  </si>
+  <si>
+    <t>predictionChangeRatio</t>
   </si>
   <si>
     <t>2025-04-22</t>
@@ -43,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,25 +106,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -193,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,22 +420,40 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0.9227969058091916</v>
       </c>
       <c r="D2">
-        <v>0.80646139845290454</v>
+        <v>0.8064613984529045</v>
       </c>
       <c r="E2">
-        <v>0.83072956165630218</v>
+        <v>0.8307295616563022</v>
+      </c>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>modelID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,6 +462,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.9203633610900833</v>
+      </c>
+      <c r="D3">
+        <v>0.8113550340651022</v>
+      </c>
+      <c r="E3">
+        <v>0.8381529144587434</v>
+      </c>
+      <c r="F3">
+        <v>155</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.01935483870967742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.9242286751361162</v>
+      </c>
+      <c r="D4">
+        <v>0.8014216575922565</v>
+      </c>
+      <c r="E4">
+        <v>0.8445251058681186</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>modelID</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>predictionChangeRatio</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-05-13</t>
   </si>
   <si>
     <t>2025-05-14</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,73 +438,21 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.9227969058091916</v>
+        <v>0.9252237221295313</v>
       </c>
       <c r="D2">
-        <v>0.8064613984529045</v>
+        <v>0.8084331867131807</v>
       </c>
       <c r="E2">
-        <v>0.8307295616563022</v>
+        <v>0.8343697861368118</v>
       </c>
       <c r="F2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.9203633610900833</v>
-      </c>
-      <c r="D3">
-        <v>0.8113550340651022</v>
-      </c>
-      <c r="E3">
-        <v>0.8381529144587434</v>
-      </c>
-      <c r="F3">
-        <v>155</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>0.01935483870967742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.9242286751361162</v>
-      </c>
-      <c r="D4">
-        <v>0.8014216575922565</v>
-      </c>
-      <c r="E4">
-        <v>0.8445251058681186</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -447,7 +447,7 @@
         <v>0.8343697861368118</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/models/modelData.xlsx
+++ b/models/modelData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serda\Desktop\mproj\mproj_tool\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139BF53-ED25-4505-9650-91A37F66BF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5055" yWindow="5895" windowWidth="26220" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>modelID</t>
   </si>
@@ -38,16 +44,13 @@
   </si>
   <si>
     <t>predictionChangeRatio</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +113,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,14 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,32 +443,6 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0.9252237221295313</v>
-      </c>
-      <c r="D2">
-        <v>0.8084331867131807</v>
-      </c>
-      <c r="E2">
-        <v>0.8343697861368118</v>
-      </c>
-      <c r="F2">
-        <v>135</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
